--- a/console/Networking/podChExcel/podMixinsXlsx/components/create/create_volumeBox.xlsx
+++ b/console/Networking/podChExcel/podMixinsXlsx/components/create/create_volumeBox.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\1.23\console_1901-24_HO-译文-提交\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12735" windowHeight="8175"/>
   </bookViews>
@@ -34,9 +29,6 @@
     <t>create_volumeBox_i18nKey_2</t>
   </si>
   <si>
-    <t>Device Name</t>
-  </si>
-  <si>
     <t>create_volumeBox_i18nKey_3</t>
   </si>
   <si>
@@ -133,9 +125,6 @@
     <t>create_volumeBox_i18nKey_19</t>
   </si>
   <si>
-    <t>Forced Formatting</t>
-  </si>
-  <si>
     <t>create_volumeBox_i18nKey_20</t>
   </si>
   <si>
@@ -217,9 +206,6 @@
     <t>create_volumeBox_i18nKey_34</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
     <t>create_volumeBox_i18nKey_35</t>
   </si>
   <si>
@@ -227,9 +213,6 @@
   </si>
   <si>
     <t>create_volumeBox_i18nKey_36</t>
-  </si>
-  <si>
-    <t>'ext4 format'</t>
   </si>
   <si>
     <t>create_volumeBox_i18nKey_37</t>
@@ -1235,6 +1218,22 @@
   </si>
   <si>
     <t xml:space="preserve">X Cloud Disk(s), and you can also add </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forced Formatting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ext4 format'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1242,7 +1241,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1269,6 +1268,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1290,9 +1295,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1634,15 +1645,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="45.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="45.5" style="1"/>
+    <col min="1" max="1" width="27.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="45.5" style="1"/>
+    <col min="4" max="4" width="45.5" style="2"/>
+    <col min="5" max="16384" width="45.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1650,7 +1664,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1661,271 +1675,271 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>37</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>0</v>
@@ -1933,211 +1947,211 @@
     </row>
     <row r="27" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>69</v>
+        <v>119</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
